--- a/ShinyWheater/R/data/clothing.xlsx
+++ b/ShinyWheater/R/data/clothing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matet\Desktop\ShinyWeather\ShinyWheater\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A34A7EF-3279-434E-91E9-F08B9E6A5035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C06F9AD-91F7-4F82-9D14-37CB417DDFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>clothes_winter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>https://unsplash.com/photos/K72BTtmS87Q</t>
   </si>
@@ -40,6 +37,27 @@
   </si>
   <si>
     <t>clothes</t>
+  </si>
+  <si>
+    <t>temp_low</t>
+  </si>
+  <si>
+    <t>temp_high</t>
+  </si>
+  <si>
+    <t>rain_low</t>
+  </si>
+  <si>
+    <t>rain_high</t>
+  </si>
+  <si>
+    <t>snow_low</t>
+  </si>
+  <si>
+    <t>snow_high</t>
+  </si>
+  <si>
+    <t>clothes_winter_warm</t>
   </si>
 </sst>
 </file>
@@ -368,35 +386,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2">
+        <v>-100</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ShinyWheater/R/data/clothing.xlsx
+++ b/ShinyWheater/R/data/clothing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matet\Desktop\ShinyWeather\ShinyWheater\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C06F9AD-91F7-4F82-9D14-37CB417DDFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E19CBE-8654-49D0-8184-8543E64E00DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>https://unsplash.com/photos/K72BTtmS87Q</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>clothes_winter_warm</t>
+  </si>
+  <si>
+    <t>clothes_winter_light</t>
+  </si>
+  <si>
+    <t>clothes_autumn</t>
+  </si>
+  <si>
+    <t>clothes_spring</t>
+  </si>
+  <si>
+    <t>clothes_summer</t>
+  </si>
+  <si>
+    <t>clothes_spring_rain</t>
+  </si>
+  <si>
+    <t>clothes_autumn_rain</t>
+  </si>
+  <si>
+    <t>too_cold_pajamas</t>
+  </si>
+  <si>
+    <t>too_warm_pajamas</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/6s9I_g2B8w8</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/WTgPdVgExww</t>
+  </si>
+  <si>
+    <t>summer_rain</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/photos/zxsdbx-af9Y</t>
   </si>
 </sst>
 </file>
@@ -386,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +437,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -434,10 +471,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C2">
         <v>-100</v>
@@ -455,11 +492,223 @@
         <v>100</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" t="s">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{4EB6E14A-4C97-4115-885B-EF364E842345}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>